--- a/test2.xlsx
+++ b/test2.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="950" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>testing</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -333,10 +341,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/test2.xlsx
+++ b/test2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="950" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="1900" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -339,17 +339,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/test2.xlsx
+++ b/test2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="2850" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>testing</t>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -342,7 +342,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/test2.xlsx
+++ b/test2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="2850" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="3800" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>test</t>
+    <t>data</t>
   </si>
 </sst>
 </file>

--- a/test2.xlsx
+++ b/test2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="2850" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="3800" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>test</t>
+    <t>rata</t>
   </si>
 </sst>
 </file>
